--- a/biology/Zoologie/Alpiscorpius_croaticus/Alpiscorpius_croaticus.xlsx
+++ b/biology/Zoologie/Alpiscorpius_croaticus/Alpiscorpius_croaticus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alpiscorpius croaticus est une espèce de scorpions de la famille des Euscorpiidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Croatie[1]. Elle se rencontre dans le Velebit et à Krk.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Croatie. Elle se rencontre dans le Velebit et à Krk.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle décrit par Graham, Webber, Blagoev, Ivanova et Fet en 2012 mesure 32,74 mm et les femelle 31,43 mm et 34,40 mm[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle décrit par Graham, Webber, Blagoev, Ivanova et Fet en 2012 mesure 32,74 mm et les femelle 31,43 mm et 34,40 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Euscorpius germanus croaticus par Caporiacco en 1950. Elle est élevée au rang d'espèce par Graham, Webber, Blagoev, Ivanova et Fet en 2012[1]. Elle est placée dans le genre Alpiscorpius par Podnar, Grbac, Tvrtković, Hörweg et Haring en 2021[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Euscorpius germanus croaticus par Caporiacco en 1950. Elle est élevée au rang d'espèce par Graham, Webber, Blagoev, Ivanova et Fet en 2012. Elle est placée dans le genre Alpiscorpius par Podnar, Grbac, Tvrtković, Hörweg et Haring en 2021.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, la Croatie.
 </t>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Caporiacco, 1950 : « Le specie e sottospecie del genere Euscorpius viventi in Italia ed in alcune zone confinanti. » Atti della Accademia nazionale dei Lincei, sér. 8, vol. 2, no 4, p. 159-230.</t>
         </is>
